--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyCode2_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyCode2_Regression_001.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CE49F4-6809-4A6B-82A2-EE867A893A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2386B65B-1056-4A45-9D83-C6B28127D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7F1979B5-6429-4797-8A7D-B73E39895F85}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyCode2_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyCode2_Regression_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2386B65B-1056-4A45-9D83-C6B28127D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A2697F-D848-4FEA-BD88-EC8CBF0AA0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7F1979B5-6429-4797-8A7D-B73E39895F85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>TC_PM_COA_SEC_AgencyCode2_EditProfile</t>
+  </si>
+  <si>
+    <t>NextProfile</t>
+  </si>
+  <si>
+    <t>Next Profile</t>
+  </si>
+  <si>
+    <t>TC_PM_COA_SEC_DeleteProfile</t>
+  </si>
+  <si>
+    <t>Delete Profile</t>
+  </si>
+  <si>
+    <t>Login_Logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -502,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634213AF-DECF-41B6-8771-50188EC6CAA1}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -635,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -699,28 +717,84 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyCode2_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyCode2_Regression_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A2697F-D848-4FEA-BD88-EC8CBF0AA0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF9AEC-63DD-4810-B24B-6B40BAF6C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7F1979B5-6429-4797-8A7D-B73E39895F85}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Validate ListView</t>
   </si>
   <si>
-    <t>TC_PM_COA_SEC_AgencyCode2_DetailsPage</t>
-  </si>
-  <si>
     <t>Validate Ldetails</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>TC_PM_COA_SEC_AgencyCode2_AddNewProfile</t>
   </si>
 </sst>
 </file>
@@ -523,13 +523,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -661,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -701,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -721,10 +721,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -741,10 +741,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -761,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -781,10 +781,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyCode2_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyCode2_Regression_001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF9AEC-63DD-4810-B24B-6B40BAF6C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F204DA3-EDE3-408F-B350-DB040C2510ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7F1979B5-6429-4797-8A7D-B73E39895F85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -105,12 +105,6 @@
     <t>TC_PM_COA_SEC_AgencyCode2_EditProfile</t>
   </si>
   <si>
-    <t>NextProfile</t>
-  </si>
-  <si>
-    <t>Next Profile</t>
-  </si>
-  <si>
     <t>TC_PM_COA_SEC_DeleteProfile</t>
   </si>
   <si>
@@ -124,6 +118,36 @@
   </si>
   <si>
     <t>TC_PM_COA_SEC_AgencyCode2_AddNewProfile</t>
+  </si>
+  <si>
+    <t>LastProcDateVerify</t>
+  </si>
+  <si>
+    <t>Verify Last Proc date</t>
+  </si>
+  <si>
+    <t>Nav_NextProfile_and_AddNewProfile</t>
+  </si>
+  <si>
+    <t>Open next profile</t>
+  </si>
+  <si>
+    <t>Adding New Profile Via Details Page</t>
+  </si>
+  <si>
+    <t>Recalling Existing Profile</t>
+  </si>
+  <si>
+    <t>Recall_Confirm</t>
+  </si>
+  <si>
+    <t>Confirm Alert Box</t>
+  </si>
+  <si>
+    <t>UserAgencySelection</t>
+  </si>
+  <si>
+    <t>Select User</t>
   </si>
 </sst>
 </file>
@@ -520,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634213AF-DECF-41B6-8771-50188EC6CAA1}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -576,15 +600,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -593,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -601,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -613,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -621,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -633,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -641,10 +665,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -661,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -673,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -681,10 +705,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -701,10 +725,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -721,78 +745,178 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
       </c>
     </row>
